--- a/tables/Overview_high_CO_observations.xlsx
+++ b/tables/Overview_high_CO_observations.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tables/Overview_high_CO_observations.xlsx
+++ b/tables/Overview_high_CO_observations.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
